--- a/conferences/AP-LS_2024_Program.xlsx
+++ b/conferences/AP-LS_2024_Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma/docs/apls-org/conferences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA2A4D8-6737-D448-B837-59D9012B65BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44FFDBB-BD89-9B4F-AA17-4778DA2A32DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="760" windowWidth="30440" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4120" yWindow="760" windowWidth="30440" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="943">
   <si>
     <t>date</t>
   </si>
@@ -2867,6 +2867,9 @@
   </si>
   <si>
     <t>Break</t>
+  </si>
+  <si>
+    <t>Celebrating 50 years! (1974-2024)</t>
   </si>
 </sst>
 </file>
@@ -3350,8 +3353,8 @@
   </sheetPr>
   <dimension ref="A1:X155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G39" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="E87" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7935,7 +7938,9 @@
       <c r="I94" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J94" s="2"/>
+      <c r="J94" s="2" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="95" spans="1:24" ht="13">
       <c r="A95" s="3">

--- a/conferences/AP-LS_2024_Program.xlsx
+++ b/conferences/AP-LS_2024_Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma/docs/apls-org/conferences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44FFDBB-BD89-9B4F-AA17-4778DA2A32DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A16D4B0-F883-F14F-B605-C4A54114E91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="760" windowWidth="30440" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11740" yWindow="3040" windowWidth="38760" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -3353,8 +3353,8 @@
   </sheetPr>
   <dimension ref="A1:X155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E87" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/conferences/AP-LS_2024_Program.xlsx
+++ b/conferences/AP-LS_2024_Program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma/docs/apls-org/conferences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C2D4B6-0B36-804F-8DA9-1B397BD6940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7E7B30-CA97-0A48-A22C-55DA217F3F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="3040" windowWidth="21660" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="945">
   <si>
     <t>date</t>
   </si>
@@ -2761,9 +2761,6 @@
     <t>Executive Committee</t>
   </si>
   <si>
-    <t>Beyond a competency crisis: California innovations addressing serious mental illness in the criminal legal system?</t>
-  </si>
-  <si>
     <t>Sexual Offenses and Other Social Dynamics in Psychology and Law</t>
   </si>
   <si>
@@ -2861,6 +2858,12 @@
   </si>
   <si>
     <t>More details at: tinyurl.com/JohnJay2024LA</t>
+  </si>
+  <si>
+    <t>Knowing what we know, what will we do?</t>
+  </si>
+  <si>
+    <t>Beyond a competency crisis: California innovations addressing serious mental illness in the criminal legal system</t>
   </si>
 </sst>
 </file>
@@ -3327,7 +3330,7 @@
   <dimension ref="A1:X154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+      <selection sqref="A1:X154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3409,13 +3412,13 @@
       <c r="W1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>22</v>
@@ -3460,7 +3463,7 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>22</v>
@@ -3502,11 +3505,10 @@
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
-      <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>22</v>
@@ -3551,7 +3553,7 @@
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>22</v>
@@ -3569,7 +3571,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>505</v>
@@ -3581,10 +3583,10 @@
         <v>900</v>
       </c>
       <c r="K5" s="20" t="s">
+        <v>920</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>921</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>922</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
@@ -3596,11 +3598,10 @@
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
       <c r="V5" s="20"/>
-      <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>22</v>
@@ -3650,11 +3651,11 @@
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
       <c r="W6" s="20"/>
-      <c r="X6" s="1"/>
+      <c r="X6" s="20"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>22</v>
@@ -3708,11 +3709,10 @@
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
-      <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>22</v>
@@ -3751,7 +3751,7 @@
         <v>573</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
@@ -3760,11 +3760,10 @@
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
-      <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>22</v>
@@ -3808,11 +3807,11 @@
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
-      <c r="X9" s="1"/>
+      <c r="X9" s="20"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>22</v>
@@ -3860,11 +3859,11 @@
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
-      <c r="X10" s="1"/>
+      <c r="X10" s="20"/>
     </row>
     <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>22</v>
@@ -3914,11 +3913,11 @@
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
-      <c r="X11" s="1"/>
+      <c r="X11" s="20"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>22</v>
@@ -3968,11 +3967,11 @@
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
-      <c r="X12" s="1"/>
+      <c r="X12" s="20"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>22</v>
@@ -4024,11 +4023,11 @@
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
-      <c r="X13" s="1"/>
+      <c r="X13" s="20"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>22</v>
@@ -4055,7 +4054,7 @@
         <v>123</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -4070,11 +4069,11 @@
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
-      <c r="X14" s="1"/>
+      <c r="X14" s="20"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>22</v>
@@ -4117,11 +4116,10 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
-      <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>22</v>
@@ -4139,7 +4137,7 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>509</v>
@@ -4181,11 +4179,11 @@
       <c r="W16" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="X16" s="1"/>
+      <c r="X16" s="20"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>22</v>
@@ -4228,11 +4226,10 @@
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
-      <c r="X17" s="1"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>22</v>
@@ -4282,11 +4279,11 @@
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
-      <c r="X18" s="1"/>
+      <c r="X18" s="20"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>22</v>
@@ -4336,11 +4333,11 @@
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
-      <c r="X19" s="1"/>
+      <c r="X19" s="20"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>22</v>
@@ -4390,11 +4387,11 @@
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
-      <c r="X20" s="1"/>
+      <c r="X20" s="20"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>22</v>
@@ -4444,11 +4441,11 @@
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
-      <c r="X21" s="1"/>
+      <c r="X21" s="20"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>22</v>
@@ -4498,11 +4495,11 @@
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
-      <c r="X22" s="1"/>
+      <c r="X22" s="20"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>22</v>
@@ -4519,8 +4516,8 @@
       <c r="F23" s="21">
         <v>0.75</v>
       </c>
-      <c r="G23" s="20" t="s">
-        <v>910</v>
+      <c r="G23" s="19" t="s">
+        <v>943</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>508</v>
@@ -4545,11 +4542,10 @@
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
-      <c r="X23" s="1"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>22</v>
@@ -4567,7 +4563,7 @@
         <v>0.75</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>509</v>
@@ -4611,11 +4607,11 @@
       <c r="W24" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="X24" s="1"/>
+      <c r="X24" s="20"/>
     </row>
     <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>22</v>
@@ -4665,11 +4661,11 @@
       <c r="U25" s="20"/>
       <c r="V25" s="20"/>
       <c r="W25" s="20"/>
-      <c r="X25" s="1"/>
+      <c r="X25" s="20"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>22</v>
@@ -4719,11 +4715,11 @@
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
-      <c r="X26" s="1"/>
+      <c r="X26" s="20"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>22</v>
@@ -4773,11 +4769,11 @@
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
       <c r="W27" s="20"/>
-      <c r="X27" s="1"/>
+      <c r="X27" s="20"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>22</v>
@@ -4827,11 +4823,11 @@
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
       <c r="W28" s="20"/>
-      <c r="X28" s="1"/>
+      <c r="X28" s="20"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>22</v>
@@ -4881,11 +4877,11 @@
       <c r="U29" s="20"/>
       <c r="V29" s="20"/>
       <c r="W29" s="20"/>
-      <c r="X29" s="1"/>
+      <c r="X29" s="20"/>
     </row>
     <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>22</v>
@@ -4935,11 +4931,11 @@
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
-      <c r="X30" s="1"/>
+      <c r="X30" s="20"/>
     </row>
     <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>22</v>
@@ -4982,11 +4978,10 @@
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
-      <c r="X31" s="1"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>22</v>
@@ -5027,11 +5022,10 @@
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
-      <c r="X32" s="1"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1">
       <c r="A33" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>22</v>
@@ -5072,11 +5066,10 @@
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
       <c r="V33" s="20"/>
-      <c r="X33" s="1"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>22</v>
@@ -5116,11 +5109,11 @@
       <c r="U34" s="20"/>
       <c r="V34" s="20"/>
       <c r="W34" s="20"/>
-      <c r="X34" s="1"/>
+      <c r="X34" s="20"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="A35" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>22</v>
@@ -5160,10 +5153,11 @@
       <c r="U35" s="20"/>
       <c r="V35" s="20"/>
       <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="A36" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>22</v>
@@ -5205,11 +5199,10 @@
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
       <c r="W36" s="20"/>
-      <c r="X36" s="1"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>22</v>
@@ -5227,7 +5220,7 @@
         <v>0.375</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>508</v>
@@ -5271,11 +5264,11 @@
       <c r="W37" s="24" t="s">
         <v>687</v>
       </c>
-      <c r="X37" s="1"/>
+      <c r="X37" s="20"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="A38" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>22</v>
@@ -5323,11 +5316,11 @@
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
       <c r="W38" s="20"/>
-      <c r="X38" s="1"/>
+      <c r="X38" s="20"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="A39" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>22</v>
@@ -5377,11 +5370,11 @@
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
-      <c r="X39" s="1"/>
+      <c r="X39" s="20"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" customHeight="1">
       <c r="A40" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>22</v>
@@ -5431,11 +5424,11 @@
       <c r="U40" s="20"/>
       <c r="V40" s="20"/>
       <c r="W40" s="20"/>
-      <c r="X40" s="1"/>
+      <c r="X40" s="20"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" customHeight="1">
       <c r="A41" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>22</v>
@@ -5485,11 +5478,11 @@
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
       <c r="W41" s="20"/>
-      <c r="X41" s="1"/>
+      <c r="X41" s="20"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" customHeight="1">
       <c r="A42" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>22</v>
@@ -5539,11 +5532,11 @@
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
       <c r="W42" s="20"/>
-      <c r="X42" s="1"/>
+      <c r="X42" s="20"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="A43" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>22</v>
@@ -5593,11 +5586,11 @@
       <c r="U43" s="20"/>
       <c r="V43" s="20"/>
       <c r="W43" s="20"/>
-      <c r="X43" s="1"/>
+      <c r="X43" s="20"/>
     </row>
     <row r="44" spans="1:24" ht="15.75" customHeight="1">
       <c r="A44" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>22</v>
@@ -5647,11 +5640,11 @@
       <c r="U44" s="20"/>
       <c r="V44" s="20"/>
       <c r="W44" s="20"/>
-      <c r="X44" s="1"/>
+      <c r="X44" s="20"/>
     </row>
     <row r="45" spans="1:24" ht="15.75" customHeight="1">
       <c r="A45" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>22</v>
@@ -5693,11 +5686,11 @@
       <c r="U45" s="20"/>
       <c r="V45" s="20"/>
       <c r="W45" s="20"/>
-      <c r="X45" s="1"/>
+      <c r="X45" s="20"/>
     </row>
     <row r="46" spans="1:24" ht="15.75" customHeight="1">
       <c r="A46" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>22</v>
@@ -5715,7 +5708,7 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H46" s="20" t="s">
         <v>509</v>
@@ -5747,11 +5740,11 @@
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
       <c r="W46" s="20"/>
-      <c r="X46" s="1"/>
+      <c r="X46" s="20"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="A47" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>22</v>
@@ -5803,11 +5796,11 @@
       <c r="U47" s="20"/>
       <c r="V47" s="20"/>
       <c r="W47" s="20"/>
-      <c r="X47" s="1"/>
+      <c r="X47" s="20"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" customHeight="1">
       <c r="A48" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>22</v>
@@ -5857,11 +5850,11 @@
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
       <c r="W48" s="20"/>
-      <c r="X48" s="1"/>
+      <c r="X48" s="20"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" customHeight="1">
       <c r="A49" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>22</v>
@@ -5911,11 +5904,11 @@
       <c r="U49" s="20"/>
       <c r="V49" s="20"/>
       <c r="W49" s="20"/>
-      <c r="X49" s="1"/>
+      <c r="X49" s="20"/>
     </row>
     <row r="50" spans="1:24" ht="15.75" customHeight="1">
       <c r="A50" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B50" s="20" t="s">
         <v>22</v>
@@ -5965,11 +5958,11 @@
       <c r="U50" s="20"/>
       <c r="V50" s="20"/>
       <c r="W50" s="20"/>
-      <c r="X50" s="1"/>
+      <c r="X50" s="20"/>
     </row>
     <row r="51" spans="1:24" ht="15.75" customHeight="1">
       <c r="A51" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>22</v>
@@ -6021,11 +6014,11 @@
       <c r="U51" s="20"/>
       <c r="V51" s="20"/>
       <c r="W51" s="20"/>
-      <c r="X51" s="1"/>
+      <c r="X51" s="20"/>
     </row>
     <row r="52" spans="1:24" ht="15.75" customHeight="1">
       <c r="A52" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>22</v>
@@ -6043,7 +6036,7 @@
         <v>0.44097222222222221</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H52" s="20" t="s">
         <v>515</v>
@@ -6070,18 +6063,18 @@
         <v>722</v>
       </c>
       <c r="R52" s="24" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
       <c r="V52" s="20"/>
       <c r="W52" s="20"/>
-      <c r="X52" s="1"/>
+      <c r="X52" s="20"/>
     </row>
     <row r="53" spans="1:24" ht="15.75" customHeight="1">
       <c r="A53" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>22</v>
@@ -6108,7 +6101,7 @@
         <v>123</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
@@ -6123,10 +6116,11 @@
       <c r="U53" s="20"/>
       <c r="V53" s="20"/>
       <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
     </row>
     <row r="54" spans="1:24" ht="15.75" customHeight="1">
       <c r="A54" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B54" s="20" t="s">
         <v>22</v>
@@ -6144,7 +6138,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>910</v>
+        <v>944</v>
       </c>
       <c r="H54" s="20" t="s">
         <v>521</v>
@@ -6156,10 +6150,10 @@
         <v>901</v>
       </c>
       <c r="K54" s="20" t="s">
+        <v>923</v>
+      </c>
+      <c r="L54" s="24" t="s">
         <v>924</v>
-      </c>
-      <c r="L54" s="24" t="s">
-        <v>925</v>
       </c>
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
@@ -6172,11 +6166,10 @@
       <c r="U54" s="20"/>
       <c r="V54" s="20"/>
       <c r="W54" s="20"/>
-      <c r="X54" s="1"/>
     </row>
     <row r="55" spans="1:24" ht="15.75" customHeight="1">
       <c r="A55" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>22</v>
@@ -6221,7 +6214,7 @@
     </row>
     <row r="56" spans="1:24" ht="15.75" customHeight="1">
       <c r="A56" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>22</v>
@@ -6251,7 +6244,7 @@
         <v>618</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L56" s="25" t="s">
         <v>127</v>
@@ -6273,11 +6266,10 @@
       <c r="U56" s="20"/>
       <c r="V56" s="20"/>
       <c r="W56" s="20"/>
-      <c r="X56" s="1"/>
     </row>
     <row r="57" spans="1:24" ht="15.75" customHeight="1">
       <c r="A57" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>22</v>
@@ -6327,11 +6319,11 @@
       <c r="U57" s="20"/>
       <c r="V57" s="20"/>
       <c r="W57" s="20"/>
-      <c r="X57" s="1"/>
+      <c r="X57" s="20"/>
     </row>
     <row r="58" spans="1:24" ht="15.75" customHeight="1">
       <c r="A58" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>22</v>
@@ -6379,11 +6371,11 @@
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
       <c r="W58" s="20"/>
-      <c r="X58" s="1"/>
+      <c r="X58" s="20"/>
     </row>
     <row r="59" spans="1:24" ht="15.75" customHeight="1">
       <c r="A59" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>22</v>
@@ -6435,11 +6427,11 @@
       <c r="U59" s="20"/>
       <c r="V59" s="20"/>
       <c r="W59" s="20"/>
-      <c r="X59" s="1"/>
+      <c r="X59" s="20"/>
     </row>
     <row r="60" spans="1:24" ht="15.75" customHeight="1">
       <c r="A60" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>22</v>
@@ -6483,11 +6475,10 @@
       <c r="U60" s="20"/>
       <c r="V60" s="20"/>
       <c r="W60" s="20"/>
-      <c r="X60" s="1"/>
     </row>
     <row r="61" spans="1:24" ht="14">
       <c r="A61" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>22</v>
@@ -6537,11 +6528,11 @@
       <c r="U61" s="20"/>
       <c r="V61" s="20"/>
       <c r="W61" s="20"/>
-      <c r="X61" s="1"/>
+      <c r="X61" s="20"/>
     </row>
     <row r="62" spans="1:24" ht="14">
       <c r="A62" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>22</v>
@@ -6591,11 +6582,11 @@
       <c r="U62" s="20"/>
       <c r="V62" s="20"/>
       <c r="W62" s="20"/>
-      <c r="X62" s="1"/>
+      <c r="X62" s="20"/>
     </row>
     <row r="63" spans="1:24" ht="14">
       <c r="A63" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>22</v>
@@ -6643,11 +6634,11 @@
       <c r="U63" s="20"/>
       <c r="V63" s="20"/>
       <c r="W63" s="20"/>
-      <c r="X63" s="1"/>
+      <c r="X63" s="20"/>
     </row>
     <row r="64" spans="1:24" ht="13">
       <c r="A64" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>22</v>
@@ -6674,7 +6665,7 @@
         <v>123</v>
       </c>
       <c r="J64" s="20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K64" s="20"/>
       <c r="L64" s="20"/>
@@ -6689,10 +6680,11 @@
       <c r="U64" s="20"/>
       <c r="V64" s="20"/>
       <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
     </row>
     <row r="65" spans="1:24" ht="14">
       <c r="A65" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>22</v>
@@ -6734,11 +6726,10 @@
       <c r="U65" s="20"/>
       <c r="V65" s="20"/>
       <c r="W65" s="20"/>
-      <c r="X65" s="1"/>
     </row>
     <row r="66" spans="1:24" ht="14">
       <c r="A66" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>22</v>
@@ -6784,11 +6775,11 @@
       <c r="U66" s="20"/>
       <c r="V66" s="20"/>
       <c r="W66" s="20"/>
-      <c r="X66" s="1"/>
+      <c r="X66" s="20"/>
     </row>
     <row r="67" spans="1:24" ht="14">
       <c r="A67" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>22</v>
@@ -6806,7 +6797,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H67" s="20" t="s">
         <v>510</v>
@@ -6848,11 +6839,11 @@
       <c r="W67" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="X67" s="1"/>
+      <c r="X67" s="20"/>
     </row>
     <row r="68" spans="1:24" ht="14">
       <c r="A68" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>22</v>
@@ -6900,11 +6891,11 @@
       <c r="U68" s="20"/>
       <c r="V68" s="20"/>
       <c r="W68" s="20"/>
-      <c r="X68" s="1"/>
+      <c r="X68" s="20"/>
     </row>
     <row r="69" spans="1:24" ht="14">
       <c r="A69" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>22</v>
@@ -6952,11 +6943,11 @@
       <c r="U69" s="20"/>
       <c r="V69" s="20"/>
       <c r="W69" s="20"/>
-      <c r="X69" s="1"/>
+      <c r="X69" s="20"/>
     </row>
     <row r="70" spans="1:24" ht="14">
       <c r="A70" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>22</v>
@@ -7004,11 +6995,11 @@
       <c r="U70" s="20"/>
       <c r="V70" s="20"/>
       <c r="W70" s="20"/>
-      <c r="X70" s="1"/>
+      <c r="X70" s="20"/>
     </row>
     <row r="71" spans="1:24" ht="14">
       <c r="A71" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>22</v>
@@ -7058,11 +7049,11 @@
       <c r="U71" s="20"/>
       <c r="V71" s="20"/>
       <c r="W71" s="20"/>
-      <c r="X71" s="1"/>
+      <c r="X71" s="20"/>
     </row>
     <row r="72" spans="1:24" ht="14">
       <c r="A72" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>22</v>
@@ -7112,11 +7103,11 @@
       <c r="U72" s="20"/>
       <c r="V72" s="20"/>
       <c r="W72" s="20"/>
-      <c r="X72" s="1"/>
+      <c r="X72" s="20"/>
     </row>
     <row r="73" spans="1:24" ht="14">
       <c r="A73" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>22</v>
@@ -7134,7 +7125,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H73" s="20" t="s">
         <v>508</v>
@@ -7178,11 +7169,11 @@
       <c r="W73" s="24" t="s">
         <v>753</v>
       </c>
-      <c r="X73" s="1"/>
+      <c r="X73" s="20"/>
     </row>
     <row r="74" spans="1:24" ht="14">
       <c r="A74" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>22</v>
@@ -7200,7 +7191,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H74" s="20" t="s">
         <v>509</v>
@@ -7230,11 +7221,11 @@
       <c r="U74" s="20"/>
       <c r="V74" s="20"/>
       <c r="W74" s="20"/>
-      <c r="X74" s="1"/>
+      <c r="X74" s="20"/>
     </row>
     <row r="75" spans="1:24" ht="14">
       <c r="A75" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>22</v>
@@ -7284,11 +7275,11 @@
       <c r="U75" s="20"/>
       <c r="V75" s="20"/>
       <c r="W75" s="20"/>
-      <c r="X75" s="1"/>
+      <c r="X75" s="20"/>
     </row>
     <row r="76" spans="1:24" ht="14">
       <c r="A76" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>22</v>
@@ -7338,11 +7329,11 @@
       <c r="U76" s="20"/>
       <c r="V76" s="20"/>
       <c r="W76" s="20"/>
-      <c r="X76" s="1"/>
+      <c r="X76" s="20"/>
     </row>
     <row r="77" spans="1:24" ht="14">
       <c r="A77" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>22</v>
@@ -7392,11 +7383,11 @@
       <c r="U77" s="20"/>
       <c r="V77" s="20"/>
       <c r="W77" s="20"/>
-      <c r="X77" s="1"/>
+      <c r="X77" s="20"/>
     </row>
     <row r="78" spans="1:24" ht="14">
       <c r="A78" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>22</v>
@@ -7444,11 +7435,11 @@
       <c r="U78" s="20"/>
       <c r="V78" s="20"/>
       <c r="W78" s="20"/>
-      <c r="X78" s="1"/>
+      <c r="X78" s="20"/>
     </row>
     <row r="79" spans="1:24" ht="14">
       <c r="A79" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>22</v>
@@ -7498,11 +7489,11 @@
       <c r="U79" s="20"/>
       <c r="V79" s="20"/>
       <c r="W79" s="20"/>
-      <c r="X79" s="1"/>
+      <c r="X79" s="20"/>
     </row>
     <row r="80" spans="1:24" ht="14">
       <c r="A80" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>22</v>
@@ -7552,11 +7543,11 @@
       <c r="U80" s="20"/>
       <c r="V80" s="20"/>
       <c r="W80" s="20"/>
-      <c r="X80" s="1"/>
+      <c r="X80" s="20"/>
     </row>
     <row r="81" spans="1:24" ht="14">
       <c r="A81" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>22</v>
@@ -7574,7 +7565,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H81" s="20" t="s">
         <v>508</v>
@@ -7618,11 +7609,11 @@
       <c r="W81" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="X81" s="1"/>
+      <c r="X81" s="20"/>
     </row>
     <row r="82" spans="1:24" ht="14">
       <c r="A82" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>22</v>
@@ -7672,11 +7663,11 @@
       <c r="U82" s="20"/>
       <c r="V82" s="20"/>
       <c r="W82" s="20"/>
-      <c r="X82" s="1"/>
+      <c r="X82" s="20"/>
     </row>
     <row r="83" spans="1:24" ht="14">
       <c r="A83" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B83" s="20" t="s">
         <v>22</v>
@@ -7726,11 +7717,11 @@
       <c r="U83" s="20"/>
       <c r="V83" s="20"/>
       <c r="W83" s="20"/>
-      <c r="X83" s="1"/>
+      <c r="X83" s="20"/>
     </row>
     <row r="84" spans="1:24" ht="14">
       <c r="A84" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>22</v>
@@ -7780,11 +7771,11 @@
       <c r="U84" s="20"/>
       <c r="V84" s="20"/>
       <c r="W84" s="20"/>
-      <c r="X84" s="1"/>
+      <c r="X84" s="20"/>
     </row>
     <row r="85" spans="1:24" ht="14">
       <c r="A85" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>22</v>
@@ -7834,11 +7825,11 @@
       <c r="U85" s="20"/>
       <c r="V85" s="20"/>
       <c r="W85" s="20"/>
-      <c r="X85" s="1"/>
+      <c r="X85" s="20"/>
     </row>
     <row r="86" spans="1:24" ht="14">
       <c r="A86" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>22</v>
@@ -7886,11 +7877,11 @@
       <c r="U86" s="20"/>
       <c r="V86" s="20"/>
       <c r="W86" s="20"/>
-      <c r="X86" s="1"/>
+      <c r="X86" s="20"/>
     </row>
     <row r="87" spans="1:24" ht="14">
       <c r="A87" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B87" s="20" t="s">
         <v>22</v>
@@ -7940,11 +7931,11 @@
       <c r="U87" s="20"/>
       <c r="V87" s="20"/>
       <c r="W87" s="20"/>
-      <c r="X87" s="1"/>
+      <c r="X87" s="20"/>
     </row>
     <row r="88" spans="1:24" ht="14">
       <c r="A88" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B88" s="20" t="s">
         <v>22</v>
@@ -7994,11 +7985,11 @@
       <c r="U88" s="20"/>
       <c r="V88" s="20"/>
       <c r="W88" s="20"/>
-      <c r="X88" s="1"/>
+      <c r="X88" s="20"/>
     </row>
     <row r="89" spans="1:24" ht="13">
       <c r="A89" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B89" s="20" t="s">
         <v>22</v>
@@ -8038,11 +8029,11 @@
       <c r="U89" s="20"/>
       <c r="V89" s="20"/>
       <c r="W89" s="20"/>
-      <c r="X89" s="1"/>
+      <c r="X89" s="20"/>
     </row>
     <row r="90" spans="1:24" ht="13">
       <c r="A90" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>22</v>
@@ -8084,10 +8075,11 @@
       <c r="U90" s="20"/>
       <c r="V90" s="20"/>
       <c r="W90" s="20"/>
+      <c r="X90" s="20"/>
     </row>
     <row r="91" spans="1:24" ht="13">
       <c r="A91" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B91" s="20" t="s">
         <v>22</v>
@@ -8127,10 +8119,11 @@
       <c r="U91" s="20"/>
       <c r="V91" s="20"/>
       <c r="W91" s="20"/>
+      <c r="X91" s="20"/>
     </row>
     <row r="92" spans="1:24" ht="13">
       <c r="A92" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B92" s="20" t="s">
         <v>22</v>
@@ -8168,10 +8161,11 @@
       <c r="U92" s="20"/>
       <c r="V92" s="20"/>
       <c r="W92" s="20"/>
+      <c r="X92" s="20"/>
     </row>
     <row r="93" spans="1:24" ht="13">
       <c r="A93" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B93" s="20" t="s">
         <v>22</v>
@@ -8210,11 +8204,10 @@
       <c r="R93" s="20"/>
       <c r="S93" s="20"/>
       <c r="T93" s="20"/>
-      <c r="X93" s="1"/>
     </row>
     <row r="94" spans="1:24" ht="13">
       <c r="A94" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>22</v>
@@ -8241,7 +8234,7 @@
         <v>29</v>
       </c>
       <c r="J94" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
@@ -8258,7 +8251,7 @@
     </row>
     <row r="95" spans="1:24" ht="13">
       <c r="A95" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>22</v>
@@ -8298,10 +8291,11 @@
       <c r="U95" s="20"/>
       <c r="V95" s="20"/>
       <c r="W95" s="20"/>
+      <c r="X95" s="20"/>
     </row>
     <row r="96" spans="1:24" ht="13">
       <c r="A96" s="20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B96" s="20" t="s">
         <v>22</v>
@@ -8341,10 +8335,11 @@
       <c r="U96" s="20"/>
       <c r="V96" s="20"/>
       <c r="W96" s="20"/>
+      <c r="X96" s="20"/>
     </row>
     <row r="97" spans="1:24" ht="14">
       <c r="A97" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B97" s="20" t="s">
         <v>22</v>
@@ -8362,7 +8357,7 @@
         <v>0.375</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H97" s="20" t="s">
         <v>508</v>
@@ -8404,11 +8399,11 @@
         <v>790</v>
       </c>
       <c r="W97" s="20"/>
-      <c r="X97" s="1"/>
+      <c r="X97" s="20"/>
     </row>
     <row r="98" spans="1:24" ht="14">
       <c r="A98" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B98" s="20" t="s">
         <v>22</v>
@@ -8458,11 +8453,11 @@
       <c r="U98" s="20"/>
       <c r="V98" s="20"/>
       <c r="W98" s="20"/>
-      <c r="X98" s="1"/>
+      <c r="X98" s="20"/>
     </row>
     <row r="99" spans="1:24" ht="14">
       <c r="A99" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B99" s="20" t="s">
         <v>22</v>
@@ -8505,7 +8500,7 @@
         <v>196</v>
       </c>
       <c r="R99" s="24" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="S99" s="20" t="s">
         <v>885</v>
@@ -8514,11 +8509,11 @@
       <c r="U99" s="20"/>
       <c r="V99" s="20"/>
       <c r="W99" s="20"/>
-      <c r="X99" s="1"/>
+      <c r="X99" s="20"/>
     </row>
     <row r="100" spans="1:24" ht="14">
       <c r="A100" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B100" s="20" t="s">
         <v>22</v>
@@ -8568,11 +8563,11 @@
       <c r="U100" s="20"/>
       <c r="V100" s="20"/>
       <c r="W100" s="20"/>
-      <c r="X100" s="1"/>
+      <c r="X100" s="20"/>
     </row>
     <row r="101" spans="1:24" ht="14">
       <c r="A101" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>22</v>
@@ -8622,11 +8617,11 @@
       <c r="U101" s="20"/>
       <c r="V101" s="20"/>
       <c r="W101" s="20"/>
-      <c r="X101" s="1"/>
+      <c r="X101" s="20"/>
     </row>
     <row r="102" spans="1:24" ht="14">
       <c r="A102" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B102" s="20" t="s">
         <v>22</v>
@@ -8676,11 +8671,11 @@
       <c r="U102" s="20"/>
       <c r="V102" s="20"/>
       <c r="W102" s="20"/>
-      <c r="X102" s="1"/>
+      <c r="X102" s="20"/>
     </row>
     <row r="103" spans="1:24" ht="14">
       <c r="A103" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B103" s="20" t="s">
         <v>22</v>
@@ -8728,11 +8723,11 @@
       <c r="U103" s="20"/>
       <c r="V103" s="20"/>
       <c r="W103" s="20"/>
-      <c r="X103" s="1"/>
+      <c r="X103" s="20"/>
     </row>
     <row r="104" spans="1:24" ht="14">
       <c r="A104" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B104" s="20" t="s">
         <v>22</v>
@@ -8782,11 +8777,11 @@
       <c r="U104" s="20"/>
       <c r="V104" s="20"/>
       <c r="W104" s="20"/>
-      <c r="X104" s="1"/>
+      <c r="X104" s="20"/>
     </row>
     <row r="105" spans="1:24" ht="14">
       <c r="A105" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>22</v>
@@ -8838,11 +8833,11 @@
       <c r="U105" s="20"/>
       <c r="V105" s="20"/>
       <c r="W105" s="20"/>
-      <c r="X105" s="1"/>
+      <c r="X105" s="20"/>
     </row>
     <row r="106" spans="1:24" ht="14">
       <c r="A106" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>22</v>
@@ -8898,11 +8893,10 @@
       <c r="U106" s="20"/>
       <c r="V106" s="20"/>
       <c r="W106" s="20"/>
-      <c r="X106" s="1"/>
     </row>
     <row r="107" spans="1:24" ht="14">
       <c r="A107" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>22</v>
@@ -8952,11 +8946,11 @@
       <c r="U107" s="20"/>
       <c r="V107" s="20"/>
       <c r="W107" s="20"/>
-      <c r="X107" s="1"/>
+      <c r="X107" s="20"/>
     </row>
     <row r="108" spans="1:24" ht="14">
       <c r="A108" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B108" s="20" t="s">
         <v>22</v>
@@ -9004,11 +8998,11 @@
       <c r="U108" s="20"/>
       <c r="V108" s="20"/>
       <c r="W108" s="20"/>
-      <c r="X108" s="1"/>
+      <c r="X108" s="20"/>
     </row>
     <row r="109" spans="1:24" ht="14">
       <c r="A109" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>22</v>
@@ -9060,11 +9054,11 @@
       <c r="U109" s="20"/>
       <c r="V109" s="20"/>
       <c r="W109" s="20"/>
-      <c r="X109" s="1"/>
+      <c r="X109" s="20"/>
     </row>
     <row r="110" spans="1:24" ht="14">
       <c r="A110" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>22</v>
@@ -9112,11 +9106,11 @@
       <c r="U110" s="20"/>
       <c r="V110" s="20"/>
       <c r="W110" s="20"/>
-      <c r="X110" s="1"/>
+      <c r="X110" s="20"/>
     </row>
     <row r="111" spans="1:24" ht="14">
       <c r="A111" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B111" s="20" t="s">
         <v>22</v>
@@ -9166,11 +9160,11 @@
       <c r="U111" s="20"/>
       <c r="V111" s="20"/>
       <c r="W111" s="20"/>
-      <c r="X111" s="1"/>
+      <c r="X111" s="20"/>
     </row>
     <row r="112" spans="1:24" ht="14">
       <c r="A112" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>22</v>
@@ -9218,11 +9212,11 @@
       <c r="U112" s="20"/>
       <c r="V112" s="20"/>
       <c r="W112" s="20"/>
-      <c r="X112" s="1"/>
+      <c r="X112" s="20"/>
     </row>
     <row r="113" spans="1:24" ht="13">
       <c r="A113" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B113" s="20" t="s">
         <v>22</v>
@@ -9249,7 +9243,7 @@
         <v>123</v>
       </c>
       <c r="J113" s="20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K113" s="20"/>
       <c r="L113" s="20"/>
@@ -9264,10 +9258,11 @@
       <c r="U113" s="20"/>
       <c r="V113" s="20"/>
       <c r="W113" s="20"/>
+      <c r="X113" s="20"/>
     </row>
     <row r="114" spans="1:24" ht="13">
       <c r="A114" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>22</v>
@@ -9294,19 +9289,19 @@
         <v>902</v>
       </c>
       <c r="J114" s="20" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K114" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L114" s="20" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="M114" s="20" t="s">
         <v>48</v>
       </c>
       <c r="N114" s="20" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O114" s="20" t="s">
         <v>228</v>
@@ -9317,11 +9312,10 @@
       <c r="S114" s="20"/>
       <c r="T114" s="20"/>
       <c r="U114" s="20"/>
-      <c r="X114" s="1"/>
     </row>
     <row r="115" spans="1:24" ht="13">
       <c r="A115" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B115" s="20" t="s">
         <v>22</v>
@@ -9346,7 +9340,7 @@
         <v>123</v>
       </c>
       <c r="J115" s="20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K115" s="20"/>
       <c r="L115" s="20"/>
@@ -9361,10 +9355,11 @@
       <c r="U115" s="20"/>
       <c r="V115" s="20"/>
       <c r="W115" s="20"/>
+      <c r="X115" s="20"/>
     </row>
     <row r="116" spans="1:24" ht="13">
       <c r="A116" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B116" s="20" t="s">
         <v>22</v>
@@ -9409,7 +9404,7 @@
     </row>
     <row r="117" spans="1:24" ht="13">
       <c r="A117" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B117" s="20" t="s">
         <v>22</v>
@@ -9454,7 +9449,7 @@
     </row>
     <row r="118" spans="1:24" ht="14">
       <c r="A118" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B118" s="20" t="s">
         <v>22</v>
@@ -9502,11 +9497,10 @@
       <c r="U118" s="20"/>
       <c r="V118" s="20"/>
       <c r="W118" s="20"/>
-      <c r="X118" s="1"/>
     </row>
     <row r="119" spans="1:24" ht="14">
       <c r="A119" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B119" s="20" t="s">
         <v>22</v>
@@ -9554,11 +9548,10 @@
       <c r="U119" s="20"/>
       <c r="V119" s="20"/>
       <c r="W119" s="20"/>
-      <c r="X119" s="1"/>
     </row>
     <row r="120" spans="1:24" ht="14">
       <c r="A120" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B120" s="20" t="s">
         <v>22</v>
@@ -9606,11 +9599,11 @@
       <c r="U120" s="20"/>
       <c r="V120" s="20"/>
       <c r="W120" s="20"/>
-      <c r="X120" s="1"/>
+      <c r="X120" s="20"/>
     </row>
     <row r="121" spans="1:24" ht="14">
       <c r="A121" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B121" s="20" t="s">
         <v>22</v>
@@ -9652,11 +9645,11 @@
       <c r="U121" s="20"/>
       <c r="V121" s="20"/>
       <c r="W121" s="20"/>
-      <c r="X121" s="1"/>
+      <c r="X121" s="20"/>
     </row>
     <row r="122" spans="1:24" ht="14">
       <c r="A122" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>22</v>
@@ -9706,11 +9699,11 @@
       <c r="U122" s="20"/>
       <c r="V122" s="20"/>
       <c r="W122" s="20"/>
-      <c r="X122" s="1"/>
+      <c r="X122" s="20"/>
     </row>
     <row r="123" spans="1:24" ht="14">
       <c r="A123" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B123" s="20" t="s">
         <v>22</v>
@@ -9760,11 +9753,11 @@
       <c r="U123" s="20"/>
       <c r="V123" s="20"/>
       <c r="W123" s="20"/>
-      <c r="X123" s="1"/>
+      <c r="X123" s="20"/>
     </row>
     <row r="124" spans="1:24" ht="14">
       <c r="A124" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B124" s="20" t="s">
         <v>22</v>
@@ -9814,11 +9807,11 @@
       <c r="U124" s="20"/>
       <c r="V124" s="20"/>
       <c r="W124" s="20"/>
-      <c r="X124" s="1"/>
+      <c r="X124" s="20"/>
     </row>
     <row r="125" spans="1:24" ht="14">
       <c r="A125" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B125" s="20" t="s">
         <v>22</v>
@@ -9870,11 +9863,11 @@
       <c r="U125" s="20"/>
       <c r="V125" s="20"/>
       <c r="W125" s="20"/>
-      <c r="X125" s="1"/>
+      <c r="X125" s="20"/>
     </row>
     <row r="126" spans="1:24" ht="13">
       <c r="A126" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B126" s="20" t="s">
         <v>22</v>
@@ -9901,7 +9894,7 @@
         <v>123</v>
       </c>
       <c r="J126" s="20" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K126" s="20"/>
       <c r="L126" s="20"/>
@@ -9916,10 +9909,11 @@
       <c r="U126" s="20"/>
       <c r="V126" s="20"/>
       <c r="W126" s="20"/>
+      <c r="X126" s="20"/>
     </row>
     <row r="127" spans="1:24" ht="14">
       <c r="A127" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>22</v>
@@ -9966,7 +9960,7 @@
     </row>
     <row r="128" spans="1:24" ht="14">
       <c r="A128" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B128" s="20" t="s">
         <v>22</v>
@@ -10018,11 +10012,11 @@
       <c r="U128" s="20"/>
       <c r="V128" s="20"/>
       <c r="W128" s="20"/>
-      <c r="X128" s="1"/>
+      <c r="X128" s="20"/>
     </row>
     <row r="129" spans="1:24" ht="14">
       <c r="A129" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B129" s="20" t="s">
         <v>22</v>
@@ -10040,7 +10034,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H129" s="20" t="s">
         <v>509</v>
@@ -10084,11 +10078,11 @@
       <c r="W129" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="X129" s="1"/>
+      <c r="X129" s="20"/>
     </row>
     <row r="130" spans="1:24" ht="14">
       <c r="A130" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B130" s="20" t="s">
         <v>22</v>
@@ -10138,11 +10132,11 @@
       <c r="U130" s="20"/>
       <c r="V130" s="20"/>
       <c r="W130" s="20"/>
-      <c r="X130" s="1"/>
+      <c r="X130" s="20"/>
     </row>
     <row r="131" spans="1:24" ht="14">
       <c r="A131" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B131" s="20" t="s">
         <v>22</v>
@@ -10192,11 +10186,11 @@
       <c r="U131" s="20"/>
       <c r="V131" s="20"/>
       <c r="W131" s="20"/>
-      <c r="X131" s="1"/>
+      <c r="X131" s="20"/>
     </row>
     <row r="132" spans="1:24" ht="14">
       <c r="A132" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B132" s="20" t="s">
         <v>22</v>
@@ -10246,11 +10240,11 @@
       <c r="U132" s="20"/>
       <c r="V132" s="20"/>
       <c r="W132" s="20"/>
-      <c r="X132" s="1"/>
+      <c r="X132" s="20"/>
     </row>
     <row r="133" spans="1:24" ht="14">
       <c r="A133" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B133" s="20" t="s">
         <v>22</v>
@@ -10300,11 +10294,11 @@
       <c r="U133" s="20"/>
       <c r="V133" s="20"/>
       <c r="W133" s="20"/>
-      <c r="X133" s="1"/>
+      <c r="X133" s="20"/>
     </row>
     <row r="134" spans="1:24" ht="14">
       <c r="A134" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B134" s="20" t="s">
         <v>22</v>
@@ -10352,11 +10346,11 @@
       <c r="U134" s="20"/>
       <c r="V134" s="20"/>
       <c r="W134" s="20"/>
-      <c r="X134" s="1"/>
+      <c r="X134" s="20"/>
     </row>
     <row r="135" spans="1:24" ht="14">
       <c r="A135" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B135" s="20" t="s">
         <v>22</v>
@@ -10406,11 +10400,11 @@
       <c r="U135" s="20"/>
       <c r="V135" s="20"/>
       <c r="W135" s="20"/>
-      <c r="X135" s="1"/>
+      <c r="X135" s="20"/>
     </row>
     <row r="136" spans="1:24" ht="14">
       <c r="A136" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B136" s="20" t="s">
         <v>22</v>
@@ -10454,7 +10448,7 @@
     </row>
     <row r="137" spans="1:24" ht="14">
       <c r="A137" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B137" s="20" t="s">
         <v>22</v>
@@ -10472,7 +10466,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H137" s="20" t="s">
         <v>508</v>
@@ -10512,11 +10506,11 @@
       </c>
       <c r="V137" s="20"/>
       <c r="W137" s="20"/>
-      <c r="X137" s="1"/>
+      <c r="X137" s="20"/>
     </row>
     <row r="138" spans="1:24" ht="14">
       <c r="A138" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B138" s="20" t="s">
         <v>22</v>
@@ -10564,11 +10558,11 @@
       <c r="U138" s="20"/>
       <c r="V138" s="20"/>
       <c r="W138" s="20"/>
-      <c r="X138" s="1"/>
+      <c r="X138" s="20"/>
     </row>
     <row r="139" spans="1:24" ht="14">
       <c r="A139" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B139" s="20" t="s">
         <v>22</v>
@@ -10618,11 +10612,11 @@
       <c r="U139" s="20"/>
       <c r="V139" s="20"/>
       <c r="W139" s="20"/>
-      <c r="X139" s="1"/>
+      <c r="X139" s="20"/>
     </row>
     <row r="140" spans="1:24" ht="14">
       <c r="A140" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B140" s="20" t="s">
         <v>22</v>
@@ -10670,11 +10664,11 @@
       <c r="U140" s="20"/>
       <c r="V140" s="20"/>
       <c r="W140" s="20"/>
-      <c r="X140" s="1"/>
+      <c r="X140" s="20"/>
     </row>
     <row r="141" spans="1:24" ht="14">
       <c r="A141" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B141" s="20" t="s">
         <v>22</v>
@@ -10722,11 +10716,11 @@
       <c r="U141" s="20"/>
       <c r="V141" s="20"/>
       <c r="W141" s="20"/>
-      <c r="X141" s="1"/>
+      <c r="X141" s="20"/>
     </row>
     <row r="142" spans="1:24" ht="14">
       <c r="A142" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B142" s="20" t="s">
         <v>22</v>
@@ -10744,7 +10738,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H142" s="20" t="s">
         <v>513</v>
@@ -10776,11 +10770,11 @@
       <c r="U142" s="20"/>
       <c r="V142" s="20"/>
       <c r="W142" s="20"/>
-      <c r="X142" s="1"/>
+      <c r="X142" s="20"/>
     </row>
     <row r="143" spans="1:24" ht="14">
       <c r="A143" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>22</v>
@@ -10830,11 +10824,11 @@
       <c r="U143" s="20"/>
       <c r="V143" s="20"/>
       <c r="W143" s="20"/>
-      <c r="X143" s="1"/>
+      <c r="X143" s="20"/>
     </row>
     <row r="144" spans="1:24" ht="14">
       <c r="A144" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B144" s="20" t="s">
         <v>22</v>
@@ -10884,11 +10878,11 @@
       <c r="U144" s="20"/>
       <c r="V144" s="20"/>
       <c r="W144" s="20"/>
-      <c r="X144" s="1"/>
+      <c r="X144" s="20"/>
     </row>
     <row r="145" spans="1:24" ht="14">
       <c r="A145" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B145" s="20" t="s">
         <v>22</v>
@@ -10906,7 +10900,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H145" s="20" t="s">
         <v>508</v>
@@ -10950,11 +10944,11 @@
       <c r="W145" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="X145" s="1"/>
+      <c r="X145" s="20"/>
     </row>
     <row r="146" spans="1:24" ht="14">
       <c r="A146" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B146" s="20" t="s">
         <v>22</v>
@@ -11004,11 +10998,11 @@
       <c r="U146" s="20"/>
       <c r="V146" s="20"/>
       <c r="W146" s="20"/>
-      <c r="X146" s="1"/>
+      <c r="X146" s="20"/>
     </row>
     <row r="147" spans="1:24" ht="14">
       <c r="A147" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B147" s="20" t="s">
         <v>22</v>
@@ -11058,11 +11052,11 @@
       <c r="U147" s="20"/>
       <c r="V147" s="20"/>
       <c r="W147" s="20"/>
-      <c r="X147" s="1"/>
+      <c r="X147" s="20"/>
     </row>
     <row r="148" spans="1:24" ht="14">
       <c r="A148" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B148" s="20" t="s">
         <v>22</v>
@@ -11110,11 +11104,11 @@
       <c r="U148" s="20"/>
       <c r="V148" s="20"/>
       <c r="W148" s="20"/>
-      <c r="X148" s="1"/>
+      <c r="X148" s="20"/>
     </row>
     <row r="149" spans="1:24" ht="14">
       <c r="A149" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B149" s="20" t="s">
         <v>22</v>
@@ -11164,11 +11158,11 @@
       <c r="U149" s="20"/>
       <c r="V149" s="20"/>
       <c r="W149" s="20"/>
-      <c r="X149" s="1"/>
+      <c r="X149" s="20"/>
     </row>
     <row r="150" spans="1:24" ht="14">
       <c r="A150" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B150" s="20" t="s">
         <v>22</v>
@@ -11218,11 +11212,11 @@
       <c r="U150" s="20"/>
       <c r="V150" s="20"/>
       <c r="W150" s="20"/>
-      <c r="X150" s="1"/>
+      <c r="X150" s="20"/>
     </row>
     <row r="151" spans="1:24" ht="14">
       <c r="A151" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B151" s="20" t="s">
         <v>22</v>
@@ -11272,11 +11266,11 @@
       <c r="U151" s="20"/>
       <c r="V151" s="20"/>
       <c r="W151" s="20"/>
-      <c r="X151" s="1"/>
+      <c r="X151" s="20"/>
     </row>
     <row r="152" spans="1:24" ht="14">
       <c r="A152" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B152" s="20" t="s">
         <v>22</v>
@@ -11324,11 +11318,11 @@
       <c r="U152" s="20"/>
       <c r="V152" s="20"/>
       <c r="W152" s="20"/>
-      <c r="X152" s="1"/>
+      <c r="X152" s="20"/>
     </row>
     <row r="153" spans="1:24" ht="13">
       <c r="A153" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B153" s="20" t="s">
         <v>22</v>
@@ -11370,10 +11364,11 @@
       <c r="U153" s="20"/>
       <c r="V153" s="20"/>
       <c r="W153" s="20"/>
+      <c r="X153" s="20"/>
     </row>
     <row r="154" spans="1:24" ht="14">
       <c r="A154" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B154" s="20" t="s">
         <v>22</v>
@@ -11401,7 +11396,7 @@
       </c>
       <c r="J154" s="20"/>
       <c r="K154" s="20" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L154" s="20"/>
       <c r="M154" s="20"/>
@@ -11414,7 +11409,6 @@
       <c r="T154" s="20"/>
       <c r="U154" s="20"/>
       <c r="V154" s="20"/>
-      <c r="X154" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
